--- a/FazaPlaniranja/Budzet.xlsx
+++ b/FazaPlaniranja/Budzet.xlsx
@@ -8,28 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ertan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA41AC3-A1BD-434E-81E3-548066033E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD4156-BC87-498D-9BB2-D14CAF91050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB251428-BD43-4219-8024-7D73EBA4D66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -522,19 +511,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -547,17 +541,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,9 +572,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -618,7 +600,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,728 +956,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502AD812-FEAB-4DFA-B97E-F4279C31CB2B}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.8203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="30.265625" customWidth="1"/>
-    <col min="5" max="5" width="25.01953125" customWidth="1"/>
-    <col min="6" max="6" width="24.48046875" customWidth="1"/>
-    <col min="7" max="7" width="22.328125" customWidth="1"/>
-    <col min="8" max="8" width="18.29296875" customWidth="1"/>
-    <col min="9" max="9" width="20.71484375" customWidth="1"/>
-    <col min="10" max="10" width="27.84375" customWidth="1"/>
-    <col min="11" max="11" width="51.38671875" customWidth="1"/>
-    <col min="12" max="12" width="22.734375" customWidth="1"/>
-    <col min="13" max="13" width="21.25390625" customWidth="1"/>
-    <col min="14" max="14" width="24.34765625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="51.44140625" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>31700</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>119700</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="31" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="44"/>
+      <c r="J3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>23550</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>184800</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="44"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>55250</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>304500</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="47"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="44"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" s="25" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+    </row>
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    </row>
+    <row r="11" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>22</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="11">
         <v>5500</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <v>21800</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="19">
         <v>27300</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>15</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <v>22</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="11">
         <v>4125</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="19">
         <v>33600</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="19">
         <v>37725</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>24</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="11">
         <v>7200</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="19">
         <v>23400</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="19">
         <v>30600</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>24</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="11">
         <v>5400</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="19">
         <v>35700</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="19">
         <v>41100</v>
       </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>25</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>23</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="11">
         <v>9000</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="19">
         <v>28250</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="19">
         <v>37250</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>23</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="11">
         <v>7200</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="19">
         <v>46200</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="19">
         <v>53400</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>25</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>20</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="11">
         <v>4500</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <v>25250</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="19">
         <v>29750</v>
       </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>15</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="17">
         <v>25</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="11">
         <v>2700</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="19">
         <v>36750</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="19">
         <v>39450</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>20</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>21</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="11">
         <v>5500</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="19">
         <v>21000</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="19">
         <v>26500</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="3">
         <v>15</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="18">
         <v>21</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="12">
         <v>4125</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="20">
         <v>32550</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="20">
         <v>36675</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
